--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (85-89).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (85-89).xlsx
@@ -286,7 +286,7 @@
     <t>2376.8 (±480.5)</t>
   </si>
   <si>
-    <t>5353.4 (±697.2)</t>
+    <t>5355.4 (±697.2)</t>
   </si>
   <si>
     <t>6304.4 (±830.3)</t>
@@ -298,7 +298,7 @@
     <t>187.2 (±54.0)</t>
   </si>
   <si>
-    <t>5987.0 (±666.3)</t>
+    <t>5986.0 (±666.3)</t>
   </si>
   <si>
     <t>393.2 (±139.5)</t>
@@ -361,7 +361,7 @@
     <t>2498.0 (±958.9)</t>
   </si>
   <si>
-    <t>2415.8 (±343.7)</t>
+    <t>2419.8 (±343.7)</t>
   </si>
   <si>
     <t>1089.2 (±140.9)</t>
@@ -454,7 +454,7 @@
     <t>6.7% (±2.7%)</t>
   </si>
   <si>
-    <t>13.4% (±2.2%)</t>
+    <t>13.4% (±2.1%)</t>
   </si>
   <si>
     <t>17.4% (±2.6%)</t>
@@ -484,7 +484,7 @@
     <t>42.1(±12.1)</t>
   </si>
   <si>
-    <t>113.4(±12.7)</t>
+    <t>113.4(±12.6)</t>
   </si>
   <si>
     <t>13.8(±4.9)</t>
@@ -547,7 +547,7 @@
     <t>72.1(±27.6)</t>
   </si>
   <si>
-    <t>88.4(±12.6)</t>
+    <t>88.6(±12.5)</t>
   </si>
   <si>
     <t>108.3(±14.0)</t>
@@ -661,7 +661,7 @@
     <t>4115.6 (±436.6)</t>
   </si>
   <si>
-    <t>6749.8 (±555.5)</t>
+    <t>6752.8 (±555.5)</t>
   </si>
   <si>
     <t>9456.6 (±791.3)</t>
@@ -673,7 +673,7 @@
     <t>277.8 (±75.8)</t>
   </si>
   <si>
-    <t>9410.0 (±531.2)</t>
+    <t>9412.0 (±531.2)</t>
   </si>
   <si>
     <t>925.2 (±296.0)</t>
@@ -736,7 +736,7 @@
     <t>6048.6 (±888.4)</t>
   </si>
   <si>
-    <t>3184.2 (±270.8)</t>
+    <t>3187.2 (±270.8)</t>
   </si>
   <si>
     <t>1406.6 (±112.9)</t>
@@ -766,7 +766,7 @@
     <t>12.7% (±3.8%)</t>
   </si>
   <si>
-    <t>21.8% (±1.5%)</t>
+    <t>21.8% (±1.4%)</t>
   </si>
   <si>
     <t>4.7% (±1.5%)</t>
@@ -859,7 +859,7 @@
     <t>64.8(±17.7)</t>
   </si>
   <si>
-    <t>180.6(±10.2)</t>
+    <t>180.7(±10.2)</t>
   </si>
   <si>
     <t>32.4(±10.4)</t>
@@ -922,7 +922,7 @@
     <t>182.0(±26.7)</t>
   </si>
   <si>
-    <t>120.5(±10.3)</t>
+    <t>120.7(±10.2)</t>
   </si>
   <si>
     <t>135.8(±10.9)</t>
@@ -1036,7 +1036,7 @@
     <t>6492.4 (±867.8)</t>
   </si>
   <si>
-    <t>12103.2 (±1237.4)</t>
+    <t>12108.2 (±1237.4)</t>
   </si>
   <si>
     <t>15761.0 (±1604.7)</t>
@@ -1048,7 +1048,7 @@
     <t>465.0 (±124.8)</t>
   </si>
   <si>
-    <t>15397.0 (±1097.9)</t>
+    <t>15398.0 (±1097.9)</t>
   </si>
   <si>
     <t>1318.4 (±389.1)</t>
@@ -1111,7 +1111,7 @@
     <t>8546.6 (±1834.2)</t>
   </si>
   <si>
-    <t>5600.0 (±587.5)</t>
+    <t>5607.0 (±587.5)</t>
   </si>
   <si>
     <t>2495.8 (±250.3)</t>
@@ -1201,7 +1201,7 @@
     <t>11.1% (±2.6%)</t>
   </si>
   <si>
-    <t>14.2% (±1.7%)</t>
+    <t>14.2% (±1.6%)</t>
   </si>
   <si>
     <t>18.2% (±2.1%)</t>
@@ -1216,7 +1216,7 @@
     <t>74.8(±10.0)</t>
   </si>
   <si>
-    <t>108.2(±11.0)</t>
+    <t>108.2(±11.1)</t>
   </si>
   <si>
     <t>231.6(±23.6)</t>
@@ -1291,7 +1291,7 @@
     <t>125.9(±27.0)</t>
   </si>
   <si>
-    <t>104.2(±10.9)</t>
+    <t>104.3(±11.0)</t>
   </si>
   <si>
     <t>122.2(±12.3)</t>
@@ -1910,7 +1910,7 @@
         <v>30816</v>
       </c>
       <c r="H3">
-        <v>37619</v>
+        <v>37621</v>
       </c>
       <c r="I3">
         <v>32265.60000000001</v>
@@ -1931,7 +1931,7 @@
         <v>32962.80000000001</v>
       </c>
       <c r="O3">
-        <v>5353.4</v>
+        <v>5355.4</v>
       </c>
       <c r="P3">
         <v>697.2</v>
@@ -2218,7 +2218,7 @@
         <v>35118</v>
       </c>
       <c r="H7">
-        <v>42105</v>
+        <v>42104</v>
       </c>
       <c r="I7">
         <v>36118.00000000002</v>
@@ -2239,7 +2239,7 @@
         <v>36784.30000000002</v>
       </c>
       <c r="O7">
-        <v>5987</v>
+        <v>5986</v>
       </c>
       <c r="P7">
         <v>666.3</v>
@@ -2266,7 +2266,7 @@
         <v>113.4</v>
       </c>
       <c r="X7">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -3835,7 +3835,7 @@
         <v>17189</v>
       </c>
       <c r="H28">
-        <v>20493</v>
+        <v>20497</v>
       </c>
       <c r="I28">
         <v>18077.19999999999</v>
@@ -3856,7 +3856,7 @@
         <v>18420.89999999999</v>
       </c>
       <c r="O28">
-        <v>2415.8</v>
+        <v>2419.8</v>
       </c>
       <c r="P28">
         <v>343.7</v>
@@ -3865,7 +3865,7 @@
         <v>13.4</v>
       </c>
       <c r="R28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3880,10 +3880,10 @@
         <v>2732679</v>
       </c>
       <c r="W28">
-        <v>88.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="X28">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="s">
         <v>176</v>
@@ -4387,7 +4387,7 @@
         <v>36640</v>
       </c>
       <c r="H3">
-        <v>44905</v>
+        <v>44908</v>
       </c>
       <c r="I3">
         <v>38155.2</v>
@@ -4408,7 +4408,7 @@
         <v>38710.7</v>
       </c>
       <c r="O3">
-        <v>6749.8</v>
+        <v>6752.8</v>
       </c>
       <c r="P3">
         <v>555.5</v>
@@ -4695,7 +4695,7 @@
         <v>42698</v>
       </c>
       <c r="H7">
-        <v>52512</v>
+        <v>52514</v>
       </c>
       <c r="I7">
         <v>43101.99999999999</v>
@@ -4716,7 +4716,7 @@
         <v>43633.19999999999</v>
       </c>
       <c r="O7">
-        <v>9410</v>
+        <v>9412</v>
       </c>
       <c r="P7">
         <v>531.2</v>
@@ -4725,7 +4725,7 @@
         <v>21.8</v>
       </c>
       <c r="R7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="s">
         <v>187</v>
@@ -4740,7 +4740,7 @@
         <v>5209143</v>
       </c>
       <c r="W7">
-        <v>180.6</v>
+        <v>180.7</v>
       </c>
       <c r="X7">
         <v>10.2</v>
@@ -6312,7 +6312,7 @@
         <v>20747</v>
       </c>
       <c r="H28">
-        <v>24481</v>
+        <v>24484</v>
       </c>
       <c r="I28">
         <v>21296.80000000001</v>
@@ -6333,7 +6333,7 @@
         <v>21567.60000000001</v>
       </c>
       <c r="O28">
-        <v>3184.2</v>
+        <v>3187.2</v>
       </c>
       <c r="P28">
         <v>270.8</v>
@@ -6357,10 +6357,10 @@
         <v>2641618</v>
       </c>
       <c r="W28">
-        <v>120.5</v>
+        <v>120.7</v>
       </c>
       <c r="X28">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="Y28" t="s">
         <v>301</v>
@@ -6864,7 +6864,7 @@
         <v>67456</v>
       </c>
       <c r="H3">
-        <v>82524</v>
+        <v>82529</v>
       </c>
       <c r="I3">
         <v>70420.80000000005</v>
@@ -6885,7 +6885,7 @@
         <v>71658.20000000004</v>
       </c>
       <c r="O3">
-        <v>12103.2</v>
+        <v>12108.2</v>
       </c>
       <c r="P3">
         <v>1237.4</v>
@@ -6912,7 +6912,7 @@
         <v>108.2</v>
       </c>
       <c r="X3">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="Y3" t="s">
         <v>399</v>
@@ -7172,7 +7172,7 @@
         <v>77816</v>
       </c>
       <c r="H7">
-        <v>94617</v>
+        <v>94618</v>
       </c>
       <c r="I7">
         <v>79219.99999999994</v>
@@ -7193,7 +7193,7 @@
         <v>80317.89999999994</v>
       </c>
       <c r="O7">
-        <v>15397</v>
+        <v>15398</v>
       </c>
       <c r="P7">
         <v>1097.9</v>
@@ -8789,7 +8789,7 @@
         <v>37936</v>
       </c>
       <c r="H28">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="I28">
         <v>39374.00000000001</v>
@@ -8810,7 +8810,7 @@
         <v>39961.50000000001</v>
       </c>
       <c r="O28">
-        <v>5600</v>
+        <v>5607</v>
       </c>
       <c r="P28">
         <v>587.5</v>
@@ -8819,7 +8819,7 @@
         <v>14.2</v>
       </c>
       <c r="R28">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S28" t="s">
         <v>333</v>
@@ -8834,10 +8834,10 @@
         <v>5374297</v>
       </c>
       <c r="W28">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="X28">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="s">
         <v>424</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (85-89).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(0-4) - (85-89).xlsx
@@ -289,40 +289,40 @@
     <t>5206.4 (±697.2)</t>
   </si>
   <si>
-    <t>6308.4 (±830.3)</t>
+    <t>6312.4 (±830.3)</t>
   </si>
   <si>
     <t>1720.2 (±521.7)</t>
   </si>
   <si>
-    <t>187.2 (±54.0)</t>
-  </si>
-  <si>
-    <t>5988.0 (±666.3)</t>
-  </si>
-  <si>
-    <t>393.2 (±139.5)</t>
-  </si>
-  <si>
-    <t>88.4 (±91.9)</t>
+    <t>115.2 (±54.0)</t>
+  </si>
+  <si>
+    <t>5995.0 (±666.3)</t>
+  </si>
+  <si>
+    <t>394.2 (±139.5)</t>
+  </si>
+  <si>
+    <t>26.4 (±91.9)</t>
   </si>
   <si>
     <t>215.0 (±196.0)</t>
   </si>
   <si>
-    <t>12722.2 (±1725.4)</t>
+    <t>12734.2 (±1725.4)</t>
   </si>
   <si>
     <t>1686.0 (±625.2)</t>
   </si>
   <si>
-    <t>5619.0 (±903.1)</t>
+    <t>5635.0 (±903.1)</t>
   </si>
   <si>
     <t>-17.6 (±18.1)</t>
   </si>
   <si>
-    <t>27488.8 (±5450.4)</t>
+    <t>27496.8 (±5450.4)</t>
   </si>
   <si>
     <t>176.4 (±314.8)</t>
@@ -340,13 +340,13 @@
     <t>139.6 (±10.6)</t>
   </si>
   <si>
-    <t>236.2 (±51.3)</t>
+    <t>337.2 (±51.3)</t>
   </si>
   <si>
     <t>5438.4 (±361.4)</t>
   </si>
   <si>
-    <t>-105.8 (±114.6)</t>
+    <t>-103.8 (±114.6)</t>
   </si>
   <si>
     <t>22915.0 (±2421.2)</t>
@@ -361,13 +361,13 @@
     <t>2498.0 (±958.9)</t>
   </si>
   <si>
-    <t>2421.8 (±343.7)</t>
-  </si>
-  <si>
-    <t>1100.2 (±140.9)</t>
-  </si>
-  <si>
-    <t>20984.2 (±2214.8)</t>
+    <t>2424.8 (±343.7)</t>
+  </si>
+  <si>
+    <t>1107.2 (±140.9)</t>
+  </si>
+  <si>
+    <t>20985.2 (±2214.8)</t>
   </si>
   <si>
     <t>1888.0 (±470.7)</t>
@@ -388,7 +388,7 @@
     <t>9.4% (±3.0%)</t>
   </si>
   <si>
-    <t>10.9% (±3.4%)</t>
+    <t>6.7% (±3.3%)</t>
   </si>
   <si>
     <t>16.6% (±2.1%)</t>
@@ -397,7 +397,7 @@
     <t>2.4% (±0.8%)</t>
   </si>
   <si>
-    <t>1.7% (±1.8%)</t>
+    <t>0.5% (±1.7%)</t>
   </si>
   <si>
     <t>1.4% (±1.3%)</t>
@@ -433,7 +433,7 @@
     <t>12.8% (±1.1%)</t>
   </si>
   <si>
-    <t>10.4% (±2.5%)</t>
+    <t>14.8% (±2.5%)</t>
   </si>
   <si>
     <t>12.0% (±0.9%)</t>
@@ -457,7 +457,7 @@
     <t>13.4% (±2.1%)</t>
   </si>
   <si>
-    <t>17.6% (±2.6%)</t>
+    <t>17.7% (±2.6%)</t>
   </si>
   <si>
     <t>18.8% (±2.3%)</t>
@@ -475,22 +475,22 @@
     <t>92.7(±12.4)</t>
   </si>
   <si>
-    <t>181.0(±23.9)</t>
+    <t>181.2(±23.8)</t>
   </si>
   <si>
     <t>85.1(±25.8)</t>
   </si>
   <si>
-    <t>42.1(±12.1)</t>
-  </si>
-  <si>
-    <t>113.4(±12.7)</t>
-  </si>
-  <si>
-    <t>13.8(±4.9)</t>
-  </si>
-  <si>
-    <t>13.1(±13.7)</t>
+    <t>25.9(±12.1)</t>
+  </si>
+  <si>
+    <t>113.6(±12.6)</t>
+  </si>
+  <si>
+    <t>13.9(±4.9)</t>
+  </si>
+  <si>
+    <t>3.9(±13.7)</t>
   </si>
   <si>
     <t>8.0(±7.3)</t>
@@ -502,7 +502,7 @@
     <t>31.9(±11.9)</t>
   </si>
   <si>
-    <t>113.7(±18.2)</t>
+    <t>114.0(±18.3)</t>
   </si>
   <si>
     <t>-10.2(±10.5)</t>
@@ -526,13 +526,13 @@
     <t>57.6(±4.4)</t>
   </si>
   <si>
-    <t>76.3(±16.6)</t>
+    <t>109.0(±16.5)</t>
   </si>
   <si>
     <t>63.9(±4.3)</t>
   </si>
   <si>
-    <t>-4.1(±4.4)</t>
+    <t>-4.0(±4.4)</t>
   </si>
   <si>
     <t>120.6(±12.7)</t>
@@ -547,10 +547,10 @@
     <t>72.1(±27.6)</t>
   </si>
   <si>
-    <t>88.6(±12.6)</t>
-  </si>
-  <si>
-    <t>109.4(±14.0)</t>
+    <t>88.7(±12.6)</t>
+  </si>
+  <si>
+    <t>110.1(±14.0)</t>
   </si>
   <si>
     <t>90.8(±9.6)</t>
@@ -628,7 +628,7 @@
     <t>52316.0 (±519.7)</t>
   </si>
   <si>
-    <t>13698.6 (±149.2)</t>
+    <t>13699.8 (±149.4)</t>
   </si>
   <si>
     <t>161164.0 (±2048.6)</t>
@@ -664,40 +664,40 @@
     <t>6482.8 (±555.5)</t>
   </si>
   <si>
-    <t>9457.6 (±791.3)</t>
+    <t>9458.6 (±791.3)</t>
   </si>
   <si>
     <t>2267.8 (±482.3)</t>
   </si>
   <si>
-    <t>277.8 (±75.8)</t>
-  </si>
-  <si>
-    <t>9420.0 (±531.2)</t>
+    <t>161.8 (±75.8)</t>
+  </si>
+  <si>
+    <t>9426.0 (±531.2)</t>
   </si>
   <si>
     <t>925.2 (±296.0)</t>
   </si>
   <si>
-    <t>219.0 (±98.8)</t>
+    <t>152.0 (±98.8)</t>
   </si>
   <si>
     <t>798.4 (±107.1)</t>
   </si>
   <si>
-    <t>22363.6 (±1998.2)</t>
+    <t>22395.6 (±1998.2)</t>
   </si>
   <si>
     <t>2110.0 (±611.4)</t>
   </si>
   <si>
-    <t>5907.8 (±726.7)</t>
+    <t>5946.8 (±726.7)</t>
   </si>
   <si>
     <t>12.6 (±17.6)</t>
   </si>
   <si>
-    <t>45154.2 (±4092.2)</t>
+    <t>45167.2 (±4092.2)</t>
   </si>
   <si>
     <t>110.4 (±265.0)</t>
@@ -712,16 +712,16 @@
     <t>203.2 (±22.2)</t>
   </si>
   <si>
-    <t>255.0 (±50.2)</t>
-  </si>
-  <si>
-    <t>505.6 (±52.4)</t>
+    <t>256.0 (±50.2)</t>
+  </si>
+  <si>
+    <t>624.6 (±52.4)</t>
   </si>
   <si>
     <t>9426.0 (±519.7)</t>
   </si>
   <si>
-    <t>188.4 (±149.2)</t>
+    <t>197.2 (±149.4)</t>
   </si>
   <si>
     <t>37229.0 (±2048.6)</t>
@@ -736,13 +736,13 @@
     <t>6048.6 (±888.4)</t>
   </si>
   <si>
-    <t>3189.2 (±270.8)</t>
-  </si>
-  <si>
-    <t>1425.6 (±112.9)</t>
-  </si>
-  <si>
-    <t>28795.6 (±1807.9)</t>
+    <t>3190.2 (±270.8)</t>
+  </si>
+  <si>
+    <t>1429.6 (±112.9)</t>
+  </si>
+  <si>
+    <t>28797.6 (±1807.9)</t>
   </si>
   <si>
     <t>3585.2 (±620.8)</t>
@@ -763,7 +763,7 @@
     <t>11.4% (±2.7%)</t>
   </si>
   <si>
-    <t>12.7% (±3.8%)</t>
+    <t>7.4% (±3.6%)</t>
   </si>
   <si>
     <t>21.9% (±1.5%)</t>
@@ -772,19 +772,19 @@
     <t>4.7% (±1.5%)</t>
   </si>
   <si>
-    <t>3.9% (±1.8%)</t>
+    <t>2.7% (±1.8%)</t>
   </si>
   <si>
     <t>4.0% (±0.5%)</t>
   </si>
   <si>
-    <t>10.9% (±1.0%)</t>
+    <t>11.0% (±1.1%)</t>
   </si>
   <si>
     <t>4.8% (±1.4%)</t>
   </si>
   <si>
-    <t>12.1% (±1.6%)</t>
+    <t>12.2% (±1.7%)</t>
   </si>
   <si>
     <t>1.5% (±2.1%)</t>
@@ -805,10 +805,10 @@
     <t>13.1% (±1.6%)</t>
   </si>
   <si>
-    <t>19.8% (±4.5%)</t>
-  </si>
-  <si>
-    <t>19.2% (±2.3%)</t>
+    <t>19.9% (±4.5%)</t>
+  </si>
+  <si>
+    <t>23.7% (±2.4%)</t>
   </si>
   <si>
     <t>18.0% (±1.1%)</t>
@@ -856,34 +856,34 @@
     <t>116.6(±24.8)</t>
   </si>
   <si>
-    <t>64.8(±17.7)</t>
-  </si>
-  <si>
-    <t>180.8(±10.2)</t>
+    <t>37.7(±17.7)</t>
+  </si>
+  <si>
+    <t>181.0(±10.1)</t>
   </si>
   <si>
     <t>32.4(±10.4)</t>
   </si>
   <si>
-    <t>35.2(±15.9)</t>
+    <t>24.5(±15.9)</t>
   </si>
   <si>
     <t>29.8(±4.0)</t>
   </si>
   <si>
-    <t>70.3(±6.3)</t>
+    <t>70.4(±6.3)</t>
   </si>
   <si>
     <t>41.7(±12.1)</t>
   </si>
   <si>
-    <t>127.7(±15.7)</t>
+    <t>128.5(±15.8)</t>
   </si>
   <si>
     <t>6.8(±9.6)</t>
   </si>
   <si>
-    <t>159.4(±14.5)</t>
+    <t>159.5(±14.4)</t>
   </si>
   <si>
     <t>12.7(±30.4)</t>
@@ -898,16 +898,16 @@
     <t>65.4(±7.1)</t>
   </si>
   <si>
-    <t>97.1(±19.2)</t>
-  </si>
-  <si>
-    <t>166.1(±17.2)</t>
+    <t>97.5(±19.1)</t>
+  </si>
+  <si>
+    <t>205.2(±17.3)</t>
   </si>
   <si>
     <t>110.7(±6.1)</t>
   </si>
   <si>
-    <t>7.1(±5.6)</t>
+    <t>7.4(±5.6)</t>
   </si>
   <si>
     <t>205.2(±11.3)</t>
@@ -922,10 +922,10 @@
     <t>182.0(±26.7)</t>
   </si>
   <si>
-    <t>120.7(±10.3)</t>
-  </si>
-  <si>
-    <t>137.6(±10.9)</t>
+    <t>120.8(±10.2)</t>
+  </si>
+  <si>
+    <t>138.0(±10.9)</t>
   </si>
   <si>
     <t>127.1(±7.9)</t>
@@ -1003,7 +1003,7 @@
     <t>97654.4 (±847.2)</t>
   </si>
   <si>
-    <t>25245.4 (±222.9)</t>
+    <t>25246.6 (±222.6)</t>
   </si>
   <si>
     <t>289707.0 (±4459.0)</t>
@@ -1039,40 +1039,40 @@
     <t>11689.2 (±1237.4)</t>
   </si>
   <si>
-    <t>15766.0 (±1604.7)</t>
+    <t>15771.0 (±1604.7)</t>
   </si>
   <si>
     <t>3988.0 (±979.4)</t>
   </si>
   <si>
-    <t>465.0 (±124.8)</t>
-  </si>
-  <si>
-    <t>15408.0 (±1097.9)</t>
-  </si>
-  <si>
-    <t>1318.4 (±389.1)</t>
-  </si>
-  <si>
-    <t>307.4 (±187.5)</t>
+    <t>277.0 (±124.8)</t>
+  </si>
+  <si>
+    <t>15421.0 (±1097.9)</t>
+  </si>
+  <si>
+    <t>1319.4 (±389.1)</t>
+  </si>
+  <si>
+    <t>178.4 (±187.5)</t>
   </si>
   <si>
     <t>1013.4 (±288.5)</t>
   </si>
   <si>
-    <t>35085.8 (±3693.2)</t>
+    <t>35129.8 (±3693.2)</t>
   </si>
   <si>
     <t>3796.0 (±1228.7)</t>
   </si>
   <si>
-    <t>11526.8 (±1551.3)</t>
+    <t>11581.8 (±1551.3)</t>
   </si>
   <si>
     <t>-5.0 (±20.9)</t>
   </si>
   <si>
-    <t>72643.0 (±9540.7)</t>
+    <t>72664.0 (±9540.7)</t>
   </si>
   <si>
     <t>286.8 (±564.8)</t>
@@ -1087,16 +1087,16 @@
     <t>281.0 (±54.2)</t>
   </si>
   <si>
-    <t>394.6 (±57.3)</t>
-  </si>
-  <si>
-    <t>741.8 (±65.7)</t>
+    <t>395.6 (±57.3)</t>
+  </si>
+  <si>
+    <t>961.8 (±65.7)</t>
   </si>
   <si>
     <t>14864.6 (±847.2)</t>
   </si>
   <si>
-    <t>82.6 (±222.9)</t>
+    <t>93.4 (±222.6)</t>
   </si>
   <si>
     <t>60144.0 (±4459.0)</t>
@@ -1111,13 +1111,13 @@
     <t>8546.6 (±1834.2)</t>
   </si>
   <si>
-    <t>5611.0 (±587.5)</t>
-  </si>
-  <si>
-    <t>2525.8 (±250.3)</t>
-  </si>
-  <si>
-    <t>49779.8 (±4007.8)</t>
+    <t>5615.0 (±587.5)</t>
+  </si>
+  <si>
+    <t>2536.8 (±250.3)</t>
+  </si>
+  <si>
+    <t>49782.8 (±4007.8)</t>
   </si>
   <si>
     <t>5473.2 (±1078.9)</t>
@@ -1132,22 +1132,22 @@
     <t>16.6% (±2.0%)</t>
   </si>
   <si>
-    <t>19.5% (±2.3%)</t>
+    <t>19.6% (±2.4%)</t>
   </si>
   <si>
     <t>10.4% (±2.7%)</t>
   </si>
   <si>
-    <t>11.9% (±3.5%)</t>
-  </si>
-  <si>
-    <t>19.4% (±1.6%)</t>
+    <t>7.1% (±3.3%)</t>
+  </si>
+  <si>
+    <t>19.5% (±1.7%)</t>
   </si>
   <si>
     <t>3.7% (±1.1%)</t>
   </si>
   <si>
-    <t>2.8% (±1.7%)</t>
+    <t>1.6% (±1.7%)</t>
   </si>
   <si>
     <t>2.9% (±0.9%)</t>
@@ -1159,7 +1159,7 @@
     <t>4.7% (±1.6%)</t>
   </si>
   <si>
-    <t>12.2% (±1.8%)</t>
+    <t>12.3% (±1.8%)</t>
   </si>
   <si>
     <t>-0.3% (±1.4%)</t>
@@ -1180,16 +1180,16 @@
     <t>10.1% (±2.1%)</t>
   </si>
   <si>
-    <t>16.6% (±2.7%)</t>
-  </si>
-  <si>
-    <t>15.1% (±1.5%)</t>
+    <t>16.7% (±2.8%)</t>
+  </si>
+  <si>
+    <t>19.6% (±1.6%)</t>
   </si>
   <si>
     <t>15.2% (±1.0%)</t>
   </si>
   <si>
-    <t>0.3% (±0.9%)</t>
+    <t>0.4% (±0.9%)</t>
   </si>
   <si>
     <t>20.8% (±1.9%)</t>
@@ -1207,7 +1207,7 @@
     <t>14.3% (±1.7%)</t>
   </si>
   <si>
-    <t>18.4% (±2.1%)</t>
+    <t>18.5% (±2.2%)</t>
   </si>
   <si>
     <t>19.4% (±1.8%)</t>
@@ -1225,40 +1225,40 @@
     <t>104.5(±11.0)</t>
   </si>
   <si>
-    <t>231.7(±23.5)</t>
+    <t>231.7(±23.6)</t>
   </si>
   <si>
     <t>100.6(±24.7)</t>
   </si>
   <si>
-    <t>53.2(±14.3)</t>
-  </si>
-  <si>
-    <t>146.9(±10.5)</t>
-  </si>
-  <si>
-    <t>23.1(±6.9)</t>
-  </si>
-  <si>
-    <t>23.8(±14.4)</t>
+    <t>31.7(±14.3)</t>
+  </si>
+  <si>
+    <t>147.0(±10.5)</t>
+  </si>
+  <si>
+    <t>23.2(±6.8)</t>
+  </si>
+  <si>
+    <t>13.8(±14.5)</t>
   </si>
   <si>
     <t>18.9(±5.3)</t>
   </si>
   <si>
-    <t>53.9(±5.7)</t>
+    <t>54.0(±5.7)</t>
   </si>
   <si>
     <t>36.7(±11.9)</t>
   </si>
   <si>
-    <t>120.4(±16.3)</t>
+    <t>121.0(±16.2)</t>
   </si>
   <si>
     <t>-1.4(±5.8)</t>
   </si>
   <si>
-    <t>126.4(±16.6)</t>
+    <t>126.5(±16.6)</t>
   </si>
   <si>
     <t>15.4(±30.4)</t>
@@ -1273,16 +1273,16 @@
     <t>45.8(±8.8)</t>
   </si>
   <si>
-    <t>78.1(±11.4)</t>
-  </si>
-  <si>
-    <t>120.8(±10.8)</t>
+    <t>78.3(±11.4)</t>
+  </si>
+  <si>
+    <t>156.7(±10.7)</t>
   </si>
   <si>
     <t>87.3(±5.0)</t>
   </si>
   <si>
-    <t>1.6(±4.2)</t>
+    <t>1.8(±4.2)</t>
   </si>
   <si>
     <t>161.9(±12.0)</t>
@@ -1297,10 +1297,10 @@
     <t>125.9(±27.0)</t>
   </si>
   <si>
-    <t>104.4(±10.9)</t>
-  </si>
-  <si>
-    <t>123.7(±12.3)</t>
+    <t>104.5(±10.9)</t>
+  </si>
+  <si>
+    <t>124.2(±12.3)</t>
   </si>
   <si>
     <t>108.8(±8.7)</t>
@@ -1842,7 +1842,7 @@
         <v>26084</v>
       </c>
       <c r="I2">
-        <v>23707.19999999999</v>
+        <v>23707.2</v>
       </c>
       <c r="J2">
         <v>548.2</v>
@@ -1854,10 +1854,10 @@
         <v>480.5</v>
       </c>
       <c r="M2">
-        <v>23226.69999999999</v>
+        <v>23226.7</v>
       </c>
       <c r="N2">
-        <v>24187.69999999999</v>
+        <v>24187.7</v>
       </c>
       <c r="O2">
         <v>2376.8</v>
@@ -1919,7 +1919,7 @@
         <v>37472</v>
       </c>
       <c r="I3">
-        <v>32265.60000000001</v>
+        <v>32265.6</v>
       </c>
       <c r="J3">
         <v>795.4</v>
@@ -1931,10 +1931,10 @@
         <v>697.2</v>
       </c>
       <c r="M3">
-        <v>31568.40000000001</v>
+        <v>31568.4</v>
       </c>
       <c r="N3">
-        <v>32962.80000000001</v>
+        <v>32962.8</v>
       </c>
       <c r="O3">
         <v>5206.4</v>
@@ -1993,10 +1993,10 @@
         <v>35430</v>
       </c>
       <c r="H4">
-        <v>43462</v>
+        <v>43466</v>
       </c>
       <c r="I4">
-        <v>37153.60000000001</v>
+        <v>37153.6</v>
       </c>
       <c r="J4">
         <v>947.2</v>
@@ -2008,13 +2008,13 @@
         <v>830.3</v>
       </c>
       <c r="M4">
-        <v>36323.30000000001</v>
+        <v>36323.3</v>
       </c>
       <c r="N4">
-        <v>37983.90000000002</v>
+        <v>37983.9</v>
       </c>
       <c r="O4">
-        <v>6308.4</v>
+        <v>6312.4</v>
       </c>
       <c r="P4">
         <v>830.3</v>
@@ -2038,10 +2038,10 @@
         <v>3484500</v>
       </c>
       <c r="W4">
-        <v>181</v>
+        <v>181.2</v>
       </c>
       <c r="X4">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Y4" t="s">
         <v>152</v>
@@ -2085,7 +2085,7 @@
         <v>521.7</v>
       </c>
       <c r="M5">
-        <v>17794.09999999999</v>
+        <v>17794.1</v>
       </c>
       <c r="N5">
         <v>18837.5</v>
@@ -2147,7 +2147,7 @@
         <v>1756</v>
       </c>
       <c r="H6">
-        <v>1912</v>
+        <v>1840</v>
       </c>
       <c r="I6">
         <v>1724.8</v>
@@ -2168,16 +2168,16 @@
         <v>1778.8</v>
       </c>
       <c r="O6">
-        <v>187.2</v>
+        <v>115.2</v>
       </c>
       <c r="P6">
         <v>54</v>
       </c>
       <c r="Q6">
-        <v>10.9</v>
+        <v>6.7</v>
       </c>
       <c r="R6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="S6" t="s">
         <v>61</v>
@@ -2192,7 +2192,7 @@
         <v>444955</v>
       </c>
       <c r="W6">
-        <v>42.1</v>
+        <v>25.9</v>
       </c>
       <c r="X6">
         <v>12.1</v>
@@ -2224,10 +2224,10 @@
         <v>35118</v>
       </c>
       <c r="H7">
-        <v>42106</v>
+        <v>42113</v>
       </c>
       <c r="I7">
-        <v>36118.00000000002</v>
+        <v>36118</v>
       </c>
       <c r="J7">
         <v>760.2</v>
@@ -2239,13 +2239,13 @@
         <v>666.3</v>
       </c>
       <c r="M7">
-        <v>35451.70000000002</v>
+        <v>35451.7</v>
       </c>
       <c r="N7">
-        <v>36784.30000000002</v>
+        <v>36784.3</v>
       </c>
       <c r="O7">
-        <v>5988</v>
+        <v>5995</v>
       </c>
       <c r="P7">
         <v>666.3</v>
@@ -2269,10 +2269,10 @@
         <v>5278191</v>
       </c>
       <c r="W7">
-        <v>113.4</v>
+        <v>113.6</v>
       </c>
       <c r="X7">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -2301,10 +2301,10 @@
         <v>15796</v>
       </c>
       <c r="H8">
-        <v>16587</v>
+        <v>16588</v>
       </c>
       <c r="I8">
-        <v>16193.80000000001</v>
+        <v>16193.8</v>
       </c>
       <c r="J8">
         <v>159.2</v>
@@ -2316,13 +2316,13 @@
         <v>139.5</v>
       </c>
       <c r="M8">
-        <v>16054.30000000001</v>
+        <v>16054.3</v>
       </c>
       <c r="N8">
-        <v>16333.30000000001</v>
+        <v>16333.3</v>
       </c>
       <c r="O8">
-        <v>393.2</v>
+        <v>394.2</v>
       </c>
       <c r="P8">
         <v>139.5</v>
@@ -2346,7 +2346,7 @@
         <v>2845217</v>
       </c>
       <c r="W8">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="X8">
         <v>4.9</v>
@@ -2378,7 +2378,7 @@
         <v>5007</v>
       </c>
       <c r="H9">
-        <v>5341</v>
+        <v>5279</v>
       </c>
       <c r="I9">
         <v>5252.6</v>
@@ -2399,16 +2399,16 @@
         <v>5344.5</v>
       </c>
       <c r="O9">
-        <v>88.40000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="P9">
         <v>91.90000000000001</v>
       </c>
       <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
         <v>1.7</v>
-      </c>
-      <c r="R9">
-        <v>1.8</v>
       </c>
       <c r="S9" t="s">
         <v>64</v>
@@ -2423,7 +2423,7 @@
         <v>672566</v>
       </c>
       <c r="W9">
-        <v>13.1</v>
+        <v>3.9</v>
       </c>
       <c r="X9">
         <v>13.7</v>
@@ -2458,7 +2458,7 @@
         <v>15973</v>
       </c>
       <c r="I10">
-        <v>15758.00000000001</v>
+        <v>15758</v>
       </c>
       <c r="J10">
         <v>223.6</v>
@@ -2470,10 +2470,10 @@
         <v>196</v>
       </c>
       <c r="M10">
-        <v>15562.00000000001</v>
+        <v>15562</v>
       </c>
       <c r="N10">
-        <v>15954.00000000001</v>
+        <v>15954</v>
       </c>
       <c r="O10">
         <v>215</v>
@@ -2532,7 +2532,7 @@
         <v>147996</v>
       </c>
       <c r="H11">
-        <v>166153</v>
+        <v>166165</v>
       </c>
       <c r="I11">
         <v>153430.8</v>
@@ -2553,7 +2553,7 @@
         <v>155156.2</v>
       </c>
       <c r="O11">
-        <v>12722.2</v>
+        <v>12734.2</v>
       </c>
       <c r="P11">
         <v>1725.4</v>
@@ -2686,7 +2686,7 @@
         <v>43516</v>
       </c>
       <c r="H13">
-        <v>51091</v>
+        <v>51107</v>
       </c>
       <c r="I13">
         <v>45472</v>
@@ -2707,7 +2707,7 @@
         <v>46375.1</v>
       </c>
       <c r="O13">
-        <v>5619</v>
+        <v>5635</v>
       </c>
       <c r="P13">
         <v>903.1</v>
@@ -2731,10 +2731,10 @@
         <v>4943603</v>
       </c>
       <c r="W13">
-        <v>113.7</v>
+        <v>114</v>
       </c>
       <c r="X13">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="Y13" t="s">
         <v>161</v>
@@ -2840,7 +2840,7 @@
         <v>173742</v>
       </c>
       <c r="H15">
-        <v>211286</v>
+        <v>211294</v>
       </c>
       <c r="I15">
         <v>183797.2</v>
@@ -2861,7 +2861,7 @@
         <v>189247.6</v>
       </c>
       <c r="O15">
-        <v>27488.8</v>
+        <v>27496.8</v>
       </c>
       <c r="P15">
         <v>5450.4</v>
@@ -2932,7 +2932,7 @@
         <v>314.8</v>
       </c>
       <c r="M16">
-        <v>9894.800000000003</v>
+        <v>9894.800000000001</v>
       </c>
       <c r="N16">
         <v>10524.4</v>
@@ -3302,10 +3302,10 @@
         <v>2188</v>
       </c>
       <c r="H21">
-        <v>2516</v>
+        <v>2617</v>
       </c>
       <c r="I21">
-        <v>2279.800000000001</v>
+        <v>2279.8</v>
       </c>
       <c r="J21">
         <v>58.5</v>
@@ -3320,16 +3320,16 @@
         <v>2228.5</v>
       </c>
       <c r="N21">
-        <v>2331.100000000001</v>
+        <v>2331.1</v>
       </c>
       <c r="O21">
-        <v>236.2</v>
+        <v>337.2</v>
       </c>
       <c r="P21">
         <v>51.3</v>
       </c>
       <c r="Q21">
-        <v>10.4</v>
+        <v>14.8</v>
       </c>
       <c r="R21">
         <v>2.5</v>
@@ -3347,10 +3347,10 @@
         <v>309486</v>
       </c>
       <c r="W21">
-        <v>76.3</v>
+        <v>109</v>
       </c>
       <c r="X21">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="s">
         <v>169</v>
@@ -3456,7 +3456,7 @@
         <v>11313</v>
       </c>
       <c r="H23">
-        <v>11441</v>
+        <v>11443</v>
       </c>
       <c r="I23">
         <v>11546.8</v>
@@ -3477,7 +3477,7 @@
         <v>11661.4</v>
       </c>
       <c r="O23">
-        <v>-105.8</v>
+        <v>-103.8</v>
       </c>
       <c r="P23">
         <v>114.6</v>
@@ -3501,7 +3501,7 @@
         <v>2584935</v>
       </c>
       <c r="W23">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="X23">
         <v>4.4</v>
@@ -3690,7 +3690,7 @@
         <v>101684</v>
       </c>
       <c r="I26">
-        <v>88817.79999999996</v>
+        <v>88817.8</v>
       </c>
       <c r="J26">
         <v>2150.1</v>
@@ -3702,10 +3702,10 @@
         <v>1884.6</v>
       </c>
       <c r="M26">
-        <v>86933.19999999995</v>
+        <v>86933.2</v>
       </c>
       <c r="N26">
-        <v>90702.39999999997</v>
+        <v>90702.40000000001</v>
       </c>
       <c r="O26">
         <v>12866.2</v>
@@ -3767,7 +3767,7 @@
         <v>39660</v>
       </c>
       <c r="I27">
-        <v>37162.00000000001</v>
+        <v>37162</v>
       </c>
       <c r="J27">
         <v>1094</v>
@@ -3779,10 +3779,10 @@
         <v>958.9</v>
       </c>
       <c r="M27">
-        <v>36203.10000000001</v>
+        <v>36203.1</v>
       </c>
       <c r="N27">
-        <v>38120.90000000001</v>
+        <v>38120.9</v>
       </c>
       <c r="O27">
         <v>2498</v>
@@ -3841,10 +3841,10 @@
         <v>17189</v>
       </c>
       <c r="H28">
-        <v>20499</v>
+        <v>20502</v>
       </c>
       <c r="I28">
-        <v>18077.19999999999</v>
+        <v>18077.2</v>
       </c>
       <c r="J28">
         <v>392.1</v>
@@ -3856,13 +3856,13 @@
         <v>343.7</v>
       </c>
       <c r="M28">
-        <v>17733.49999999999</v>
+        <v>17733.5</v>
       </c>
       <c r="N28">
-        <v>18420.89999999999</v>
+        <v>18420.9</v>
       </c>
       <c r="O28">
-        <v>2421.8</v>
+        <v>2424.8</v>
       </c>
       <c r="P28">
         <v>343.7</v>
@@ -3886,7 +3886,7 @@
         <v>2732679</v>
       </c>
       <c r="W28">
-        <v>88.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="X28">
         <v>12.6</v>
@@ -3918,10 +3918,10 @@
         <v>5983</v>
       </c>
       <c r="H29">
-        <v>7356</v>
+        <v>7363</v>
       </c>
       <c r="I29">
-        <v>6255.800000000001</v>
+        <v>6255.8</v>
       </c>
       <c r="J29">
         <v>160.8</v>
@@ -3936,16 +3936,16 @@
         <v>6114.900000000001</v>
       </c>
       <c r="N29">
-        <v>6396.700000000001</v>
+        <v>6396.7</v>
       </c>
       <c r="O29">
-        <v>1100.2</v>
+        <v>1107.2</v>
       </c>
       <c r="P29">
         <v>140.9</v>
       </c>
       <c r="Q29">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="R29">
         <v>2.6</v>
@@ -3963,7 +3963,7 @@
         <v>1005895</v>
       </c>
       <c r="W29">
-        <v>109.4</v>
+        <v>110.1</v>
       </c>
       <c r="X29">
         <v>14</v>
@@ -3995,7 +3995,7 @@
         <v>105266</v>
       </c>
       <c r="H30">
-        <v>132316</v>
+        <v>132317</v>
       </c>
       <c r="I30">
         <v>111331.8</v>
@@ -4016,7 +4016,7 @@
         <v>113546.6</v>
       </c>
       <c r="O30">
-        <v>20984.2</v>
+        <v>20985.2</v>
       </c>
       <c r="P30">
         <v>2214.8</v>
@@ -4319,7 +4319,7 @@
         <v>32097</v>
       </c>
       <c r="I2">
-        <v>27981.39999999999</v>
+        <v>27981.4</v>
       </c>
       <c r="J2">
         <v>498.1</v>
@@ -4334,7 +4334,7 @@
         <v>27544.8</v>
       </c>
       <c r="N2">
-        <v>28417.99999999999</v>
+        <v>28418</v>
       </c>
       <c r="O2">
         <v>4115.6</v>
@@ -4470,10 +4470,10 @@
         <v>41592</v>
       </c>
       <c r="H4">
-        <v>52951</v>
+        <v>52952</v>
       </c>
       <c r="I4">
-        <v>43493.40000000002</v>
+        <v>43493.4</v>
       </c>
       <c r="J4">
         <v>902.7</v>
@@ -4485,13 +4485,13 @@
         <v>791.3</v>
       </c>
       <c r="M4">
-        <v>42702.10000000002</v>
+        <v>42702.1</v>
       </c>
       <c r="N4">
-        <v>44284.70000000003</v>
+        <v>44284.7</v>
       </c>
       <c r="O4">
-        <v>9457.6</v>
+        <v>9458.6</v>
       </c>
       <c r="P4">
         <v>791.3</v>
@@ -4550,7 +4550,7 @@
         <v>22207</v>
       </c>
       <c r="I5">
-        <v>19939.19999999999</v>
+        <v>19939.2</v>
       </c>
       <c r="J5">
         <v>550.2</v>
@@ -4562,10 +4562,10 @@
         <v>482.3</v>
       </c>
       <c r="M5">
-        <v>19456.89999999999</v>
+        <v>19456.9</v>
       </c>
       <c r="N5">
-        <v>20421.49999999999</v>
+        <v>20421.5</v>
       </c>
       <c r="O5">
         <v>2267.8</v>
@@ -4624,7 +4624,7 @@
         <v>2288</v>
       </c>
       <c r="H6">
-        <v>2463</v>
+        <v>2347</v>
       </c>
       <c r="I6">
         <v>2185.2</v>
@@ -4645,16 +4645,16 @@
         <v>2261</v>
       </c>
       <c r="O6">
-        <v>277.8</v>
+        <v>161.8</v>
       </c>
       <c r="P6">
         <v>75.8</v>
       </c>
       <c r="Q6">
-        <v>12.7</v>
+        <v>7.4</v>
       </c>
       <c r="R6">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="S6" t="s">
         <v>186</v>
@@ -4669,7 +4669,7 @@
         <v>428827</v>
       </c>
       <c r="W6">
-        <v>64.8</v>
+        <v>37.7</v>
       </c>
       <c r="X6">
         <v>17.7</v>
@@ -4701,10 +4701,10 @@
         <v>42698</v>
       </c>
       <c r="H7">
-        <v>52522</v>
+        <v>52528</v>
       </c>
       <c r="I7">
-        <v>43101.99999999999</v>
+        <v>43102</v>
       </c>
       <c r="J7">
         <v>606</v>
@@ -4719,10 +4719,10 @@
         <v>42570.8</v>
       </c>
       <c r="N7">
-        <v>43633.19999999999</v>
+        <v>43633.2</v>
       </c>
       <c r="O7">
-        <v>9420</v>
+        <v>9426</v>
       </c>
       <c r="P7">
         <v>531.2</v>
@@ -4746,10 +4746,10 @@
         <v>5209143</v>
       </c>
       <c r="W7">
-        <v>180.8</v>
+        <v>181</v>
       </c>
       <c r="X7">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="Y7" t="s">
         <v>280</v>
@@ -4781,7 +4781,7 @@
         <v>20579</v>
       </c>
       <c r="I8">
-        <v>19653.80000000001</v>
+        <v>19653.8</v>
       </c>
       <c r="J8">
         <v>337.7</v>
@@ -4793,10 +4793,10 @@
         <v>296</v>
       </c>
       <c r="M8">
-        <v>19357.80000000001</v>
+        <v>19357.8</v>
       </c>
       <c r="N8">
-        <v>19949.80000000001</v>
+        <v>19949.8</v>
       </c>
       <c r="O8">
         <v>925.2</v>
@@ -4855,7 +4855,7 @@
         <v>5387</v>
       </c>
       <c r="H9">
-        <v>5873</v>
+        <v>5806</v>
       </c>
       <c r="I9">
         <v>5654</v>
@@ -4876,13 +4876,13 @@
         <v>5752.8</v>
       </c>
       <c r="O9">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="P9">
         <v>98.8</v>
       </c>
       <c r="Q9">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="R9">
         <v>1.8</v>
@@ -4900,7 +4900,7 @@
         <v>621476</v>
       </c>
       <c r="W9">
-        <v>35.2</v>
+        <v>24.5</v>
       </c>
       <c r="X9">
         <v>15.9</v>
@@ -4935,7 +4935,7 @@
         <v>20546</v>
       </c>
       <c r="I10">
-        <v>19747.60000000001</v>
+        <v>19747.6</v>
       </c>
       <c r="J10">
         <v>122.2</v>
@@ -4947,10 +4947,10 @@
         <v>107.1</v>
       </c>
       <c r="M10">
-        <v>19640.50000000001</v>
+        <v>19640.5</v>
       </c>
       <c r="N10">
-        <v>19854.70000000001</v>
+        <v>19854.7</v>
       </c>
       <c r="O10">
         <v>798.4</v>
@@ -5009,10 +5009,10 @@
         <v>197791</v>
       </c>
       <c r="H11">
-        <v>226808</v>
+        <v>226840</v>
       </c>
       <c r="I11">
-        <v>204444.3999999999</v>
+        <v>204444.4</v>
       </c>
       <c r="J11">
         <v>2279.6</v>
@@ -5024,22 +5024,22 @@
         <v>1998.2</v>
       </c>
       <c r="M11">
-        <v>202446.1999999999</v>
+        <v>202446.2</v>
       </c>
       <c r="N11">
-        <v>206442.5999999999</v>
+        <v>206442.6</v>
       </c>
       <c r="O11">
-        <v>22363.6</v>
+        <v>22395.6</v>
       </c>
       <c r="P11">
         <v>1998.2</v>
       </c>
       <c r="Q11">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="S11" t="s">
         <v>191</v>
@@ -5054,7 +5054,7 @@
         <v>31809378</v>
       </c>
       <c r="W11">
-        <v>70.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="X11">
         <v>6.3</v>
@@ -5089,7 +5089,7 @@
         <v>46033</v>
       </c>
       <c r="I12">
-        <v>43923.00000000001</v>
+        <v>43923</v>
       </c>
       <c r="J12">
         <v>697.5</v>
@@ -5101,10 +5101,10 @@
         <v>611.4</v>
       </c>
       <c r="M12">
-        <v>43311.60000000001</v>
+        <v>43311.6</v>
       </c>
       <c r="N12">
-        <v>44534.40000000002</v>
+        <v>44534.4</v>
       </c>
       <c r="O12">
         <v>2110</v>
@@ -5163,7 +5163,7 @@
         <v>46571</v>
       </c>
       <c r="H13">
-        <v>54760</v>
+        <v>54799</v>
       </c>
       <c r="I13">
         <v>48852.2</v>
@@ -5184,16 +5184,16 @@
         <v>49578.89999999999</v>
       </c>
       <c r="O13">
-        <v>5907.8</v>
+        <v>5946.8</v>
       </c>
       <c r="P13">
         <v>726.7</v>
       </c>
       <c r="Q13">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="R13">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="s">
         <v>193</v>
@@ -5208,10 +5208,10 @@
         <v>4626327</v>
       </c>
       <c r="W13">
-        <v>127.7</v>
+        <v>128.5</v>
       </c>
       <c r="X13">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="Y13" t="s">
         <v>286</v>
@@ -5243,7 +5243,7 @@
         <v>832</v>
       </c>
       <c r="I14">
-        <v>819.4000000000004</v>
+        <v>819.4</v>
       </c>
       <c r="J14">
         <v>20.1</v>
@@ -5255,10 +5255,10 @@
         <v>17.6</v>
       </c>
       <c r="M14">
-        <v>801.8000000000004</v>
+        <v>801.8</v>
       </c>
       <c r="N14">
-        <v>837.0000000000005</v>
+        <v>837</v>
       </c>
       <c r="O14">
         <v>12.6</v>
@@ -5317,7 +5317,7 @@
         <v>203915</v>
       </c>
       <c r="H15">
-        <v>257949</v>
+        <v>257962</v>
       </c>
       <c r="I15">
         <v>212794.8</v>
@@ -5338,7 +5338,7 @@
         <v>216887</v>
       </c>
       <c r="O15">
-        <v>45154.2</v>
+        <v>45167.2</v>
       </c>
       <c r="P15">
         <v>4092.2</v>
@@ -5362,10 +5362,10 @@
         <v>28325684</v>
       </c>
       <c r="W15">
-        <v>159.4</v>
+        <v>159.5</v>
       </c>
       <c r="X15">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="Y15" t="s">
         <v>288</v>
@@ -5397,7 +5397,7 @@
         <v>10680</v>
       </c>
       <c r="I16">
-        <v>10569.60000000001</v>
+        <v>10569.6</v>
       </c>
       <c r="J16">
         <v>302.3</v>
@@ -5409,10 +5409,10 @@
         <v>265</v>
       </c>
       <c r="M16">
-        <v>10304.60000000001</v>
+        <v>10304.6</v>
       </c>
       <c r="N16">
-        <v>10834.60000000001</v>
+        <v>10834.6</v>
       </c>
       <c r="O16">
         <v>110.4</v>
@@ -5474,7 +5474,7 @@
         <v>118</v>
       </c>
       <c r="I17">
-        <v>100.6000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="J17">
         <v>7.1</v>
@@ -5486,10 +5486,10 @@
         <v>6.2</v>
       </c>
       <c r="M17">
-        <v>94.40000000000008</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="N17">
-        <v>106.8000000000001</v>
+        <v>106.8</v>
       </c>
       <c r="O17">
         <v>17.4</v>
@@ -5628,7 +5628,7 @@
         <v>1753</v>
       </c>
       <c r="I19">
-        <v>1549.799999999999</v>
+        <v>1549.8</v>
       </c>
       <c r="J19">
         <v>25.3</v>
@@ -5640,10 +5640,10 @@
         <v>22.2</v>
       </c>
       <c r="M19">
-        <v>1527.599999999999</v>
+        <v>1527.6</v>
       </c>
       <c r="N19">
-        <v>1571.999999999999</v>
+        <v>1572</v>
       </c>
       <c r="O19">
         <v>203.2</v>
@@ -5702,10 +5702,10 @@
         <v>1320</v>
       </c>
       <c r="H20">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="I20">
-        <v>1286.000000000002</v>
+        <v>1286</v>
       </c>
       <c r="J20">
         <v>57.3</v>
@@ -5717,19 +5717,19 @@
         <v>50.2</v>
       </c>
       <c r="M20">
-        <v>1235.800000000002</v>
+        <v>1235.8</v>
       </c>
       <c r="N20">
-        <v>1336.200000000002</v>
+        <v>1336.2</v>
       </c>
       <c r="O20">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P20">
         <v>50.2</v>
       </c>
       <c r="Q20">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="R20">
         <v>4.5</v>
@@ -5747,10 +5747,10 @@
         <v>262513</v>
       </c>
       <c r="W20">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="X20">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Y20" t="s">
         <v>293</v>
@@ -5779,10 +5779,10 @@
         <v>2633</v>
       </c>
       <c r="H21">
-        <v>3139</v>
+        <v>3258</v>
       </c>
       <c r="I21">
-        <v>2633.399999999998</v>
+        <v>2633.4</v>
       </c>
       <c r="J21">
         <v>59.8</v>
@@ -5794,22 +5794,22 @@
         <v>52.4</v>
       </c>
       <c r="M21">
-        <v>2580.999999999998</v>
+        <v>2581</v>
       </c>
       <c r="N21">
-        <v>2685.799999999998</v>
+        <v>2685.8</v>
       </c>
       <c r="O21">
-        <v>505.6</v>
+        <v>624.6</v>
       </c>
       <c r="P21">
         <v>52.4</v>
       </c>
       <c r="Q21">
-        <v>19.2</v>
+        <v>23.7</v>
       </c>
       <c r="R21">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="s">
         <v>201</v>
@@ -5824,10 +5824,10 @@
         <v>304336</v>
       </c>
       <c r="W21">
-        <v>166.1</v>
+        <v>205.2</v>
       </c>
       <c r="X21">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="Y21" t="s">
         <v>294</v>
@@ -5859,7 +5859,7 @@
         <v>61742</v>
       </c>
       <c r="I22">
-        <v>52316.00000000001</v>
+        <v>52316</v>
       </c>
       <c r="J22">
         <v>592.9</v>
@@ -5871,10 +5871,10 @@
         <v>519.7</v>
       </c>
       <c r="M22">
-        <v>51796.30000000002</v>
+        <v>51796.3</v>
       </c>
       <c r="N22">
-        <v>52835.70000000001</v>
+        <v>52835.7</v>
       </c>
       <c r="O22">
         <v>9426</v>
@@ -5927,37 +5927,37 @@
         <v>13198</v>
       </c>
       <c r="F23">
-        <v>13430</v>
+        <v>13433</v>
       </c>
       <c r="G23">
-        <v>13459</v>
+        <v>13462</v>
       </c>
       <c r="H23">
-        <v>13887</v>
+        <v>13897</v>
       </c>
       <c r="I23">
-        <v>13698.59999999999</v>
+        <v>13699.8</v>
       </c>
       <c r="J23">
-        <v>170.2</v>
+        <v>170.5</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>149.2</v>
+        <v>149.4</v>
       </c>
       <c r="M23">
-        <v>13549.39999999999</v>
+        <v>13550.4</v>
       </c>
       <c r="N23">
-        <v>13847.79999999999</v>
+        <v>13849.2</v>
       </c>
       <c r="O23">
-        <v>188.4</v>
+        <v>197.2</v>
       </c>
       <c r="P23">
-        <v>149.2</v>
+        <v>149.4</v>
       </c>
       <c r="Q23">
         <v>1.4</v>
@@ -5978,7 +5978,7 @@
         <v>2665650</v>
       </c>
       <c r="W23">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="X23">
         <v>5.6</v>
@@ -6090,7 +6090,7 @@
         <v>43757</v>
       </c>
       <c r="I25">
-        <v>38939.00000000001</v>
+        <v>38939</v>
       </c>
       <c r="J25">
         <v>701.1</v>
@@ -6102,10 +6102,10 @@
         <v>614.5</v>
       </c>
       <c r="M25">
-        <v>38324.50000000001</v>
+        <v>38324.5</v>
       </c>
       <c r="N25">
-        <v>39553.50000000001</v>
+        <v>39553.5</v>
       </c>
       <c r="O25">
         <v>4818</v>
@@ -6167,7 +6167,7 @@
         <v>126813</v>
       </c>
       <c r="I26">
-        <v>105994.4000000001</v>
+        <v>105994.4</v>
       </c>
       <c r="J26">
         <v>1802.2</v>
@@ -6179,7 +6179,7 @@
         <v>1579.7</v>
       </c>
       <c r="M26">
-        <v>104414.7000000001</v>
+        <v>104414.7</v>
       </c>
       <c r="N26">
         <v>107574.1</v>
@@ -6318,10 +6318,10 @@
         <v>20747</v>
       </c>
       <c r="H28">
-        <v>24486</v>
+        <v>24487</v>
       </c>
       <c r="I28">
-        <v>21296.80000000001</v>
+        <v>21296.8</v>
       </c>
       <c r="J28">
         <v>308.9</v>
@@ -6333,13 +6333,13 @@
         <v>270.8</v>
       </c>
       <c r="M28">
-        <v>21026.00000000001</v>
+        <v>21026</v>
       </c>
       <c r="N28">
-        <v>21567.60000000001</v>
+        <v>21567.6</v>
       </c>
       <c r="O28">
-        <v>3189.2</v>
+        <v>3190.2</v>
       </c>
       <c r="P28">
         <v>270.8</v>
@@ -6363,10 +6363,10 @@
         <v>2641618</v>
       </c>
       <c r="W28">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="X28">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="Y28" t="s">
         <v>301</v>
@@ -6395,7 +6395,7 @@
         <v>7247</v>
       </c>
       <c r="H29">
-        <v>8908</v>
+        <v>8912</v>
       </c>
       <c r="I29">
         <v>7482.4</v>
@@ -6416,7 +6416,7 @@
         <v>7595.299999999999</v>
       </c>
       <c r="O29">
-        <v>1425.6</v>
+        <v>1429.6</v>
       </c>
       <c r="P29">
         <v>112.9</v>
@@ -6440,7 +6440,7 @@
         <v>1035830</v>
       </c>
       <c r="W29">
-        <v>137.6</v>
+        <v>138</v>
       </c>
       <c r="X29">
         <v>10.9</v>
@@ -6472,7 +6472,7 @@
         <v>139718</v>
       </c>
       <c r="H30">
-        <v>174101</v>
+        <v>174103</v>
       </c>
       <c r="I30">
         <v>145305.4</v>
@@ -6493,7 +6493,7 @@
         <v>147113.3</v>
       </c>
       <c r="O30">
-        <v>28795.6</v>
+        <v>28797.6</v>
       </c>
       <c r="P30">
         <v>1807.9</v>
@@ -6552,7 +6552,7 @@
         <v>33087</v>
       </c>
       <c r="I31">
-        <v>29501.80000000001</v>
+        <v>29501.8</v>
       </c>
       <c r="J31">
         <v>708.2</v>
@@ -6564,10 +6564,10 @@
         <v>620.8</v>
       </c>
       <c r="M31">
-        <v>28881.00000000001</v>
+        <v>28881</v>
       </c>
       <c r="N31">
-        <v>30122.60000000001</v>
+        <v>30122.6</v>
       </c>
       <c r="O31">
         <v>3585.2</v>
@@ -6629,7 +6629,7 @@
         <v>25793</v>
       </c>
       <c r="I32">
-        <v>21927.99999999999</v>
+        <v>21928</v>
       </c>
       <c r="J32">
         <v>352.6</v>
@@ -6641,10 +6641,10 @@
         <v>309.1</v>
       </c>
       <c r="M32">
-        <v>21618.89999999999</v>
+        <v>21618.9</v>
       </c>
       <c r="N32">
-        <v>22237.09999999998</v>
+        <v>22237.1</v>
       </c>
       <c r="O32">
         <v>3865</v>
@@ -6796,7 +6796,7 @@
         <v>58181</v>
       </c>
       <c r="I2">
-        <v>51688.60000000001</v>
+        <v>51688.6</v>
       </c>
       <c r="J2">
         <v>990</v>
@@ -6808,10 +6808,10 @@
         <v>867.8</v>
       </c>
       <c r="M2">
-        <v>50820.80000000001</v>
+        <v>50820.8</v>
       </c>
       <c r="N2">
-        <v>52556.40000000002</v>
+        <v>52556.4</v>
       </c>
       <c r="O2">
         <v>6492.4</v>
@@ -6873,7 +6873,7 @@
         <v>82110</v>
       </c>
       <c r="I3">
-        <v>70420.80000000005</v>
+        <v>70420.8</v>
       </c>
       <c r="J3">
         <v>1411.7</v>
@@ -6885,10 +6885,10 @@
         <v>1237.4</v>
       </c>
       <c r="M3">
-        <v>69183.40000000005</v>
+        <v>69183.40000000001</v>
       </c>
       <c r="N3">
-        <v>71658.20000000004</v>
+        <v>71658.2</v>
       </c>
       <c r="O3">
         <v>11689.2</v>
@@ -6947,7 +6947,7 @@
         <v>77022</v>
       </c>
       <c r="H4">
-        <v>96413</v>
+        <v>96418</v>
       </c>
       <c r="I4">
         <v>80647</v>
@@ -6968,16 +6968,16 @@
         <v>82251.7</v>
       </c>
       <c r="O4">
-        <v>15766</v>
+        <v>15771</v>
       </c>
       <c r="P4">
         <v>1604.7</v>
       </c>
       <c r="Q4">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="R4">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S4" t="s">
         <v>309</v>
@@ -6995,7 +6995,7 @@
         <v>231.7</v>
       </c>
       <c r="X4">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Y4" t="s">
         <v>402</v>
@@ -7027,7 +7027,7 @@
         <v>42243</v>
       </c>
       <c r="I5">
-        <v>38254.99999999999</v>
+        <v>38255</v>
       </c>
       <c r="J5">
         <v>1117.3</v>
@@ -7039,10 +7039,10 @@
         <v>979.4</v>
       </c>
       <c r="M5">
-        <v>37275.59999999999</v>
+        <v>37275.6</v>
       </c>
       <c r="N5">
-        <v>39234.39999999999</v>
+        <v>39234.4</v>
       </c>
       <c r="O5">
         <v>3988</v>
@@ -7101,10 +7101,10 @@
         <v>4044</v>
       </c>
       <c r="H6">
-        <v>4375</v>
+        <v>4187</v>
       </c>
       <c r="I6">
-        <v>3909.999999999999</v>
+        <v>3910</v>
       </c>
       <c r="J6">
         <v>142.4</v>
@@ -7116,22 +7116,22 @@
         <v>124.8</v>
       </c>
       <c r="M6">
-        <v>3785.199999999999</v>
+        <v>3785.2</v>
       </c>
       <c r="N6">
-        <v>4034.799999999999</v>
+        <v>4034.8</v>
       </c>
       <c r="O6">
-        <v>465</v>
+        <v>277</v>
       </c>
       <c r="P6">
         <v>124.8</v>
       </c>
       <c r="Q6">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="R6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S6" t="s">
         <v>311</v>
@@ -7146,7 +7146,7 @@
         <v>873782</v>
       </c>
       <c r="W6">
-        <v>53.2</v>
+        <v>31.7</v>
       </c>
       <c r="X6">
         <v>14.3</v>
@@ -7178,10 +7178,10 @@
         <v>77816</v>
       </c>
       <c r="H7">
-        <v>94628</v>
+        <v>94641</v>
       </c>
       <c r="I7">
-        <v>79219.99999999994</v>
+        <v>79220</v>
       </c>
       <c r="J7">
         <v>1252.5</v>
@@ -7193,22 +7193,22 @@
         <v>1097.9</v>
       </c>
       <c r="M7">
-        <v>78122.09999999995</v>
+        <v>78122.10000000001</v>
       </c>
       <c r="N7">
-        <v>80317.89999999994</v>
+        <v>80317.89999999999</v>
       </c>
       <c r="O7">
-        <v>15408</v>
+        <v>15421</v>
       </c>
       <c r="P7">
         <v>1097.9</v>
       </c>
       <c r="Q7">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="R7">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="s">
         <v>312</v>
@@ -7223,7 +7223,7 @@
         <v>10487334</v>
       </c>
       <c r="W7">
-        <v>146.9</v>
+        <v>147</v>
       </c>
       <c r="X7">
         <v>10.5</v>
@@ -7255,10 +7255,10 @@
         <v>35242</v>
       </c>
       <c r="H8">
-        <v>37166</v>
+        <v>37167</v>
       </c>
       <c r="I8">
-        <v>35847.60000000001</v>
+        <v>35847.6</v>
       </c>
       <c r="J8">
         <v>443.9</v>
@@ -7270,13 +7270,13 @@
         <v>389.1</v>
       </c>
       <c r="M8">
-        <v>35458.50000000001</v>
+        <v>35458.5</v>
       </c>
       <c r="N8">
         <v>36236.7</v>
       </c>
       <c r="O8">
-        <v>1318.4</v>
+        <v>1319.4</v>
       </c>
       <c r="P8">
         <v>389.1</v>
@@ -7300,10 +7300,10 @@
         <v>5698400</v>
       </c>
       <c r="W8">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="X8">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y8" t="s">
         <v>406</v>
@@ -7332,7 +7332,7 @@
         <v>10394</v>
       </c>
       <c r="H9">
-        <v>11214</v>
+        <v>11085</v>
       </c>
       <c r="I9">
         <v>10906.6</v>
@@ -7353,13 +7353,13 @@
         <v>11094.1</v>
       </c>
       <c r="O9">
-        <v>307.4</v>
+        <v>178.4</v>
       </c>
       <c r="P9">
         <v>187.5</v>
       </c>
       <c r="Q9">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="R9">
         <v>1.7</v>
@@ -7377,10 +7377,10 @@
         <v>1294042</v>
       </c>
       <c r="W9">
-        <v>23.8</v>
+        <v>13.8</v>
       </c>
       <c r="X9">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="s">
         <v>407</v>
@@ -7412,7 +7412,7 @@
         <v>36519</v>
       </c>
       <c r="I10">
-        <v>35505.60000000001</v>
+        <v>35505.6</v>
       </c>
       <c r="J10">
         <v>329.1</v>
@@ -7424,10 +7424,10 @@
         <v>288.5</v>
       </c>
       <c r="M10">
-        <v>35217.10000000001</v>
+        <v>35217.1</v>
       </c>
       <c r="N10">
-        <v>35794.10000000001</v>
+        <v>35794.1</v>
       </c>
       <c r="O10">
         <v>1013.4</v>
@@ -7486,7 +7486,7 @@
         <v>345787</v>
       </c>
       <c r="H11">
-        <v>392961</v>
+        <v>393005</v>
       </c>
       <c r="I11">
         <v>357875.2</v>
@@ -7507,7 +7507,7 @@
         <v>361568.4</v>
       </c>
       <c r="O11">
-        <v>35085.8</v>
+        <v>35129.8</v>
       </c>
       <c r="P11">
         <v>3693.2</v>
@@ -7531,7 +7531,7 @@
         <v>65048107</v>
       </c>
       <c r="W11">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="X11">
         <v>5.7</v>
@@ -7566,7 +7566,7 @@
         <v>84158</v>
       </c>
       <c r="I12">
-        <v>80362.00000000004</v>
+        <v>80362</v>
       </c>
       <c r="J12">
         <v>1401.8</v>
@@ -7578,10 +7578,10 @@
         <v>1228.7</v>
       </c>
       <c r="M12">
-        <v>79133.30000000005</v>
+        <v>79133.3</v>
       </c>
       <c r="N12">
-        <v>81590.70000000004</v>
+        <v>81590.7</v>
       </c>
       <c r="O12">
         <v>3796</v>
@@ -7640,10 +7640,10 @@
         <v>90087</v>
       </c>
       <c r="H13">
-        <v>105851</v>
+        <v>105906</v>
       </c>
       <c r="I13">
-        <v>94324.19999999988</v>
+        <v>94324.2</v>
       </c>
       <c r="J13">
         <v>1769.8</v>
@@ -7655,19 +7655,19 @@
         <v>1551.3</v>
       </c>
       <c r="M13">
-        <v>92772.89999999988</v>
+        <v>92772.89999999999</v>
       </c>
       <c r="N13">
-        <v>95875.49999999988</v>
+        <v>95875.5</v>
       </c>
       <c r="O13">
-        <v>11526.8</v>
+        <v>11581.8</v>
       </c>
       <c r="P13">
         <v>1551.3</v>
       </c>
       <c r="Q13">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -7685,10 +7685,10 @@
         <v>9569930</v>
       </c>
       <c r="W13">
-        <v>120.4</v>
+        <v>121</v>
       </c>
       <c r="X13">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="Y13" t="s">
         <v>411</v>
@@ -7794,10 +7794,10 @@
         <v>377657</v>
       </c>
       <c r="H15">
-        <v>469235</v>
+        <v>469256</v>
       </c>
       <c r="I15">
-        <v>396591.9999999999</v>
+        <v>396592</v>
       </c>
       <c r="J15">
         <v>10884.5</v>
@@ -7809,13 +7809,13 @@
         <v>9540.700000000001</v>
       </c>
       <c r="M15">
-        <v>387051.2999999999</v>
+        <v>387051.3</v>
       </c>
       <c r="N15">
-        <v>406132.6999999999</v>
+        <v>406132.7</v>
       </c>
       <c r="O15">
-        <v>72643</v>
+        <v>72664</v>
       </c>
       <c r="P15">
         <v>9540.700000000001</v>
@@ -7839,7 +7839,7 @@
         <v>57453321</v>
       </c>
       <c r="W15">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="X15">
         <v>16.6</v>
@@ -7951,7 +7951,7 @@
         <v>213</v>
       </c>
       <c r="I17">
-        <v>176.9999999999998</v>
+        <v>177</v>
       </c>
       <c r="J17">
         <v>4.5</v>
@@ -7963,10 +7963,10 @@
         <v>3.9</v>
       </c>
       <c r="M17">
-        <v>173.0999999999998</v>
+        <v>173.1</v>
       </c>
       <c r="N17">
-        <v>180.8999999999998</v>
+        <v>180.9</v>
       </c>
       <c r="O17">
         <v>36</v>
@@ -8028,7 +8028,7 @@
         <v>32198</v>
       </c>
       <c r="I18">
-        <v>28882.99999999997</v>
+        <v>28883</v>
       </c>
       <c r="J18">
         <v>1649.1</v>
@@ -8040,10 +8040,10 @@
         <v>1445.5</v>
       </c>
       <c r="M18">
-        <v>27437.49999999997</v>
+        <v>27437.5</v>
       </c>
       <c r="N18">
-        <v>30328.49999999997</v>
+        <v>30328.5</v>
       </c>
       <c r="O18">
         <v>3315</v>
@@ -8105,7 +8105,7 @@
         <v>3064</v>
       </c>
       <c r="I19">
-        <v>2783.000000000001</v>
+        <v>2783</v>
       </c>
       <c r="J19">
         <v>61.8</v>
@@ -8117,10 +8117,10 @@
         <v>54.2</v>
       </c>
       <c r="M19">
-        <v>2728.800000000001</v>
+        <v>2728.8</v>
       </c>
       <c r="N19">
-        <v>2837.200000000001</v>
+        <v>2837.2</v>
       </c>
       <c r="O19">
         <v>281</v>
@@ -8179,10 +8179,10 @@
         <v>2371</v>
       </c>
       <c r="H20">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="I20">
-        <v>2373.399999999998</v>
+        <v>2373.4</v>
       </c>
       <c r="J20">
         <v>65.40000000000001</v>
@@ -8194,22 +8194,22 @@
         <v>57.3</v>
       </c>
       <c r="M20">
-        <v>2316.099999999998</v>
+        <v>2316.1</v>
       </c>
       <c r="N20">
-        <v>2430.699999999998</v>
+        <v>2430.7</v>
       </c>
       <c r="O20">
-        <v>394.6</v>
+        <v>395.6</v>
       </c>
       <c r="P20">
         <v>57.3</v>
       </c>
       <c r="Q20">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="R20">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S20" t="s">
         <v>325</v>
@@ -8224,7 +8224,7 @@
         <v>504929</v>
       </c>
       <c r="W20">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="X20">
         <v>11.4</v>
@@ -8256,10 +8256,10 @@
         <v>4821</v>
       </c>
       <c r="H21">
-        <v>5655</v>
+        <v>5875</v>
       </c>
       <c r="I21">
-        <v>4913.199999999999</v>
+        <v>4913.2</v>
       </c>
       <c r="J21">
         <v>75</v>
@@ -8271,22 +8271,22 @@
         <v>65.7</v>
       </c>
       <c r="M21">
-        <v>4847.499999999999</v>
+        <v>4847.5</v>
       </c>
       <c r="N21">
-        <v>4978.899999999999</v>
+        <v>4978.9</v>
       </c>
       <c r="O21">
-        <v>741.8</v>
+        <v>961.8</v>
       </c>
       <c r="P21">
         <v>65.7</v>
       </c>
       <c r="Q21">
-        <v>15.1</v>
+        <v>19.6</v>
       </c>
       <c r="R21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="s">
         <v>326</v>
@@ -8301,10 +8301,10 @@
         <v>613822</v>
       </c>
       <c r="W21">
-        <v>120.8</v>
+        <v>156.7</v>
       </c>
       <c r="X21">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="Y21" t="s">
         <v>419</v>
@@ -8336,7 +8336,7 @@
         <v>112519</v>
       </c>
       <c r="I22">
-        <v>97654.39999999995</v>
+        <v>97654.39999999999</v>
       </c>
       <c r="J22">
         <v>966.5</v>
@@ -8348,10 +8348,10 @@
         <v>847.2</v>
       </c>
       <c r="M22">
-        <v>96807.19999999995</v>
+        <v>96807.2</v>
       </c>
       <c r="N22">
-        <v>98501.59999999995</v>
+        <v>98501.59999999999</v>
       </c>
       <c r="O22">
         <v>14864.6</v>
@@ -8404,40 +8404,40 @@
         <v>24574</v>
       </c>
       <c r="F23">
-        <v>24566</v>
+        <v>24569</v>
       </c>
       <c r="G23">
-        <v>24772</v>
+        <v>24775</v>
       </c>
       <c r="H23">
-        <v>25328</v>
+        <v>25340</v>
       </c>
       <c r="I23">
-        <v>25245.40000000001</v>
+        <v>25246.6</v>
       </c>
       <c r="J23">
-        <v>254.3</v>
+        <v>253.9</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>222.9</v>
+        <v>222.6</v>
       </c>
       <c r="M23">
-        <v>25022.5</v>
+        <v>25024</v>
       </c>
       <c r="N23">
-        <v>25468.30000000001</v>
+        <v>25469.2</v>
       </c>
       <c r="O23">
-        <v>82.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="P23">
-        <v>222.9</v>
+        <v>222.6</v>
       </c>
       <c r="Q23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="R23">
         <v>0.9</v>
@@ -8455,7 +8455,7 @@
         <v>5250585</v>
       </c>
       <c r="W23">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X23">
         <v>4.2</v>
@@ -8490,7 +8490,7 @@
         <v>349851</v>
       </c>
       <c r="I24">
-        <v>289707.0000000001</v>
+        <v>289707</v>
       </c>
       <c r="J24">
         <v>5087</v>
@@ -8502,10 +8502,10 @@
         <v>4459</v>
       </c>
       <c r="M24">
-        <v>285248.0000000001</v>
+        <v>285248</v>
       </c>
       <c r="N24">
-        <v>294166.0000000001</v>
+        <v>294166</v>
       </c>
       <c r="O24">
         <v>60144</v>
@@ -8567,7 +8567,7 @@
         <v>79758</v>
       </c>
       <c r="I25">
-        <v>70677.79999999993</v>
+        <v>70677.8</v>
       </c>
       <c r="J25">
         <v>1295.2</v>
@@ -8579,10 +8579,10 @@
         <v>1135.3</v>
       </c>
       <c r="M25">
-        <v>69542.49999999993</v>
+        <v>69542.5</v>
       </c>
       <c r="N25">
-        <v>71813.09999999993</v>
+        <v>71813.10000000001</v>
       </c>
       <c r="O25">
         <v>9080.200000000001</v>
@@ -8721,7 +8721,7 @@
         <v>85676</v>
       </c>
       <c r="I27">
-        <v>77129.39999999992</v>
+        <v>77129.39999999999</v>
       </c>
       <c r="J27">
         <v>2092.5</v>
@@ -8733,10 +8733,10 @@
         <v>1834.2</v>
       </c>
       <c r="M27">
-        <v>75295.19999999992</v>
+        <v>75295.2</v>
       </c>
       <c r="N27">
-        <v>78963.59999999992</v>
+        <v>78963.59999999999</v>
       </c>
       <c r="O27">
         <v>8546.6</v>
@@ -8795,10 +8795,10 @@
         <v>37936</v>
       </c>
       <c r="H28">
-        <v>44985</v>
+        <v>44989</v>
       </c>
       <c r="I28">
-        <v>39374.00000000001</v>
+        <v>39374</v>
       </c>
       <c r="J28">
         <v>670.2</v>
@@ -8810,13 +8810,13 @@
         <v>587.5</v>
       </c>
       <c r="M28">
-        <v>38786.50000000001</v>
+        <v>38786.5</v>
       </c>
       <c r="N28">
-        <v>39961.50000000001</v>
+        <v>39961.5</v>
       </c>
       <c r="O28">
-        <v>5611</v>
+        <v>5615</v>
       </c>
       <c r="P28">
         <v>587.5</v>
@@ -8840,7 +8840,7 @@
         <v>5374297</v>
       </c>
       <c r="W28">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="X28">
         <v>10.9</v>
@@ -8872,10 +8872,10 @@
         <v>13230</v>
       </c>
       <c r="H29">
-        <v>16264</v>
+        <v>16275</v>
       </c>
       <c r="I29">
-        <v>13738.20000000001</v>
+        <v>13738.2</v>
       </c>
       <c r="J29">
         <v>285.6</v>
@@ -8887,22 +8887,22 @@
         <v>250.3</v>
       </c>
       <c r="M29">
-        <v>13487.90000000001</v>
+        <v>13487.9</v>
       </c>
       <c r="N29">
-        <v>13988.50000000001</v>
+        <v>13988.5</v>
       </c>
       <c r="O29">
-        <v>2525.8</v>
+        <v>2536.8</v>
       </c>
       <c r="P29">
         <v>250.3</v>
       </c>
       <c r="Q29">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="R29">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="s">
         <v>334</v>
@@ -8917,7 +8917,7 @@
         <v>2041725</v>
       </c>
       <c r="W29">
-        <v>123.7</v>
+        <v>124.2</v>
       </c>
       <c r="X29">
         <v>12.3</v>
@@ -8949,7 +8949,7 @@
         <v>244984</v>
       </c>
       <c r="H30">
-        <v>306417</v>
+        <v>306420</v>
       </c>
       <c r="I30">
         <v>256637.2</v>
@@ -8964,13 +8964,13 @@
         <v>4007.8</v>
       </c>
       <c r="M30">
-        <v>252629.4000000001</v>
+        <v>252629.4</v>
       </c>
       <c r="N30">
         <v>260645</v>
       </c>
       <c r="O30">
-        <v>49779.8</v>
+        <v>49782.8</v>
       </c>
       <c r="P30">
         <v>4007.8</v>
@@ -9106,7 +9106,7 @@
         <v>46492</v>
       </c>
       <c r="I32">
-        <v>40439.40000000001</v>
+        <v>40439.4</v>
       </c>
       <c r="J32">
         <v>563</v>
@@ -9118,10 +9118,10 @@
         <v>493.5</v>
       </c>
       <c r="M32">
-        <v>39945.90000000001</v>
+        <v>39945.9</v>
       </c>
       <c r="N32">
-        <v>40932.90000000001</v>
+        <v>40932.9</v>
       </c>
       <c r="O32">
         <v>6052.6</v>
